--- a/f-canopy/dist/assets/new-center-startup-workbook.xlsx
+++ b/f-canopy/dist/assets/new-center-startup-workbook.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <r>
       <rPr>
@@ -35,7 +35,7 @@
         <color indexed="9"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>v1.1</t>
+      <t>v1.2</t>
     </r>
   </si>
   <si>
@@ -203,6 +203,12 @@
     <t>6'x6' workstation w/locking storage, ergonomic seating and desking, WiFi or hard-wired connection, free coffee and reception. Available for members 24/7, non-members during working hours.</t>
   </si>
   <si>
+    <t>Cafe Space</t>
+  </si>
+  <si>
+    <t>Get right to work in beautiful, connected workspace. Includes electrical outlets at each station, WiFi broadband Internet, comfortable chairs and free coffee. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="1"/>
@@ -343,7 +349,7 @@
         <color indexed="10"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Part Number Category
+      <t xml:space="preserve">Product Category Code
 </t>
     </r>
     <r>
@@ -353,7 +359,18 @@
         <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>(1 - 9)</t>
+      <t>(x-xx)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Product Category Name</t>
     </r>
   </si>
   <si>
@@ -374,7 +391,7 @@
         <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>(xxxx)</t>
+      <t>(xx)</t>
     </r>
   </si>
   <si>
@@ -436,6 +453,15 @@
     <t>Registration</t>
   </si>
   <si>
+    <t>1-01</t>
+  </si>
+  <si>
+    <t>Registrations</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Registration automatically loads on a new member signup charge.</t>
   </si>
   <si>
@@ -448,15 +474,30 @@
     <t>Y</t>
   </si>
   <si>
+    <t>2-03</t>
+  </si>
+  <si>
+    <t>Private Office, per hour/day</t>
+  </si>
+  <si>
     <t>Rental items can be used with reservation credits. Only check credits (Y) for “per hr.” items.</t>
   </si>
   <si>
     <t>Private Office, per day</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Conference Rm., Sm, per hr.</t>
   </si>
   <si>
+    <t>2-05</t>
+  </si>
+  <si>
+    <t>Conference Room, Small, hour/day</t>
+  </si>
+  <si>
     <t>Reservations are charged at these billable items (per hr.)</t>
   </si>
   <si>
@@ -466,13 +507,31 @@
     <t>Conference Rm., Lg, per hr.</t>
   </si>
   <si>
+    <t>2-06</t>
+  </si>
+  <si>
+    <t>Conference Room, Large, hour/day</t>
+  </si>
+  <si>
     <t>Conference Rm., Lg, per day</t>
   </si>
   <si>
     <t>Workstation, per hr.</t>
   </si>
   <si>
-    <t>Day Pass</t>
+    <t>2-02</t>
+  </si>
+  <si>
+    <t>Workstation, per hour</t>
+  </si>
+  <si>
+    <t>Cafe Pass, per day</t>
+  </si>
+  <si>
+    <t>2-01</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Print, B&amp;W</t>
@@ -481,22 +540,34 @@
     <t>Print</t>
   </si>
   <si>
+    <t>3-01</t>
+  </si>
+  <si>
     <t>No special actions.</t>
   </si>
   <si>
     <t>Print, Color</t>
   </si>
   <si>
-    <t>Admin Services, per hr.</t>
+    <t>Admin Services</t>
   </si>
   <si>
     <t>Services</t>
   </si>
   <si>
+    <t>5-05</t>
+  </si>
+  <si>
     <t>Services can be put on a recurring billing.</t>
   </si>
   <si>
-    <t>Phone, per day</t>
+    <t>Mailbox</t>
+  </si>
+  <si>
+    <t>5-01</t>
+  </si>
+  <si>
+    <t>Mail Services</t>
   </si>
   <si>
     <r>
@@ -679,10 +750,13 @@
     </r>
   </si>
   <si>
-    <t>Private Office, full time</t>
-  </si>
-  <si>
-    <t>Private Office, 5d/mo.</t>
+    <t>Private Office, 5 days/mo</t>
+  </si>
+  <si>
+    <t>Private Offices</t>
+  </si>
+  <si>
+    <t>Private Office Unlimited</t>
   </si>
   <si>
     <t>Private Office #1</t>
@@ -706,6 +780,9 @@
     <t>Virtual Office</t>
   </si>
   <si>
+    <t>Virtual Offices</t>
+  </si>
+  <si>
     <t>Virtual Office - Phone</t>
   </si>
   <si>
@@ -713,6 +790,9 @@
   </si>
   <si>
     <t>Bucket of Hours</t>
+  </si>
+  <si>
+    <t>Bucket of Hrs</t>
   </si>
   <si>
     <t>Workstation, Bucket of Hrs.</t>
@@ -1332,10 +1412,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot; &quot;[$$-409]* #,##0.00&quot; &quot;;&quot; &quot;[$$-409]* (#,##0.00&quot;) &quot;;&quot; &quot;[$$-409]* &quot;-&quot;??"/>
-    <numFmt numFmtId="60" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
+    <numFmt numFmtId="60" formatCode="m-yy"/>
+    <numFmt numFmtId="61" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -2016,7 +2097,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2116,6 +2197,9 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2146,6 +2230,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2182,187 +2269,202 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3494,9 +3596,7 @@
   <cols>
     <col min="1" max="1" width="27.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="7.75" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3837,9 +3937,7 @@
   <cols>
     <col min="1" max="1" width="21.25" style="26" customWidth="1"/>
     <col min="2" max="2" width="71.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="26" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="26" customWidth="1"/>
+    <col min="3" max="5" width="7.75" style="26" customWidth="1"/>
     <col min="6" max="256" width="7.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3919,8 +4017,12 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="40.25" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" t="s" s="31">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="33">
+        <v>43</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -3953,496 +4055,545 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="33" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="59.75" style="33" customWidth="1"/>
-    <col min="11" max="256" width="7.75" style="33" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="23.8672" style="34" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="34" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="59.75" style="34" customWidth="1"/>
+    <col min="12" max="256" width="7.75" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="35"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" ht="19.75" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" t="s" s="39">
-        <v>44</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="39"/>
+      <c r="B2" t="s" s="40">
+        <v>45</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" t="s" s="40">
+        <v>46</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" ht="67.75" customHeight="1">
-      <c r="A3" t="s" s="46">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s" s="47">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s" s="48">
+      <c r="A3" t="s" s="48">
         <v>47</v>
       </c>
-      <c r="D3" t="s" s="48">
+      <c r="B3" t="s" s="49">
         <v>48</v>
       </c>
-      <c r="E3" t="s" s="48">
+      <c r="C3" t="s" s="50">
         <v>49</v>
       </c>
-      <c r="F3" t="s" s="48">
+      <c r="D3" t="s" s="50">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="46">
+      <c r="E3" t="s" s="50">
         <v>51</v>
       </c>
-      <c r="H3" t="s" s="47">
+      <c r="F3" t="s" s="50">
         <v>52</v>
       </c>
-      <c r="I3" t="s" s="46">
+      <c r="G3" t="s" s="50">
         <v>53</v>
       </c>
-      <c r="J3" t="s" s="49">
+      <c r="H3" t="s" s="48">
         <v>54</v>
       </c>
+      <c r="I3" t="s" s="49">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s" s="48">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s" s="51">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="50">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s" s="51">
-        <v>55</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55">
+      <c r="A4" t="s" s="52">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="53">
+        <v>58</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" t="s" s="54">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s" s="56">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s" s="57">
+        <v>61</v>
+      </c>
+      <c r="I4" s="58">
+        <v>50</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" t="s" s="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" customHeight="1">
+      <c r="A5" t="s" s="61">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="G4" s="56">
+      <c r="E5" t="s" s="65">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="63">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s" s="65">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I5" s="67">
+        <v>15</v>
+      </c>
+      <c r="J5" s="68">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s" s="69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="15.65" customHeight="1">
+      <c r="A6" t="s" s="61">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="65">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s" s="63">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s" s="65">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s" s="66">
+        <v>70</v>
+      </c>
+      <c r="I6" s="67">
+        <v>60</v>
+      </c>
+      <c r="J6" s="68">
+        <v>80</v>
+      </c>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" ht="15.65" customHeight="1">
+      <c r="A7" t="s" s="61">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D7" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="65">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="63">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="65">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I7" s="67">
+        <v>30</v>
+      </c>
+      <c r="J7" s="68">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="69">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" ht="15.65" customHeight="1">
+      <c r="A8" t="s" s="61">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="65">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="63">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s" s="65">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s" s="66">
+        <v>70</v>
+      </c>
+      <c r="I8" s="67">
+        <v>200</v>
+      </c>
+      <c r="J8" s="68">
+        <v>250</v>
+      </c>
+      <c r="K8" s="69"/>
+    </row>
+    <row r="9" ht="15.65" customHeight="1">
+      <c r="A9" t="s" s="61">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="65">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="63">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="65">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I9" s="67">
+        <v>40</v>
+      </c>
+      <c r="J9" s="68">
         <v>50</v>
       </c>
-      <c r="H4" s="57">
-        <v>50</v>
-      </c>
-      <c r="I4" s="58"/>
-      <c r="J4" t="s" s="59">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="15.65" customHeight="1">
-      <c r="A5" t="s" s="60">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D5" s="63">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="64">
-        <v>32</v>
-      </c>
-      <c r="F5" s="63">
-        <v>2</v>
-      </c>
-      <c r="G5" s="65">
-        <v>105</v>
-      </c>
-      <c r="H5" s="66">
-        <v>15</v>
-      </c>
-      <c r="I5" s="67">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s" s="68">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" ht="15.65" customHeight="1">
-      <c r="A6" t="s" s="60">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63">
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" ht="15.65" customHeight="1">
+      <c r="A10" t="s" s="61">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="64">
-        <v>32</v>
-      </c>
-      <c r="F6" s="63">
-        <v>2</v>
-      </c>
-      <c r="G6" s="65">
-        <v>110</v>
-      </c>
-      <c r="H6" s="66">
-        <v>60</v>
-      </c>
-      <c r="I6" s="67">
-        <v>80</v>
-      </c>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" ht="15.65" customHeight="1">
-      <c r="A7" t="s" s="60">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D7" s="63">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="64">
-        <v>34</v>
-      </c>
-      <c r="F7" s="63">
-        <v>2</v>
-      </c>
-      <c r="G7" s="65">
-        <v>205</v>
-      </c>
-      <c r="H7" s="66">
-        <v>30</v>
-      </c>
-      <c r="I7" s="67">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s" s="68">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" ht="15.65" customHeight="1">
-      <c r="A8" t="s" s="60">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="64">
-        <v>34</v>
-      </c>
-      <c r="F8" s="63">
-        <v>2</v>
-      </c>
-      <c r="G8" s="65">
-        <v>210</v>
-      </c>
-      <c r="H8" s="66">
-        <v>200</v>
-      </c>
-      <c r="I8" s="67">
-        <v>250</v>
-      </c>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" ht="15.65" customHeight="1">
-      <c r="A9" t="s" s="60">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D9" s="63">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="64">
+      <c r="E10" t="s" s="65">
         <v>36</v>
       </c>
-      <c r="F9" s="63">
-        <v>2</v>
-      </c>
-      <c r="G9" s="65">
-        <v>220</v>
-      </c>
-      <c r="H9" s="66">
-        <v>40</v>
-      </c>
-      <c r="I9" s="67">
-        <v>50</v>
-      </c>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" ht="15.65" customHeight="1">
-      <c r="A10" t="s" s="60">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="64">
-        <v>36</v>
-      </c>
-      <c r="F10" s="63">
-        <v>2</v>
-      </c>
-      <c r="G10" s="65">
-        <v>225</v>
-      </c>
-      <c r="H10" s="66">
-        <v>300</v>
+      <c r="F10" t="s" s="63">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="65">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s" s="66">
+        <v>70</v>
       </c>
       <c r="I10" s="67">
         <v>300</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="68">
+        <v>300</v>
+      </c>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" ht="15.65" customHeight="1">
-      <c r="A11" t="s" s="60">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D11" s="63">
+      <c r="A11" t="s" s="61">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D11" s="64">
         <v>1</v>
       </c>
-      <c r="E11" t="s" s="64">
+      <c r="E11" t="s" s="65">
         <v>40</v>
       </c>
-      <c r="F11" s="63">
-        <v>2</v>
-      </c>
-      <c r="G11" s="65">
-        <v>230</v>
-      </c>
-      <c r="H11" s="66">
+      <c r="F11" t="s" s="63">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="65">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I11" s="67">
         <v>15</v>
       </c>
-      <c r="I11" s="67">
+      <c r="J11" s="68">
         <v>20</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
     </row>
     <row r="12" ht="15.65" customHeight="1">
-      <c r="A12" t="s" s="60">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63">
+      <c r="A12" t="s" s="61">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="65">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s" s="63">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="65">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s" s="66">
+        <v>85</v>
+      </c>
+      <c r="I12" s="67">
+        <v>25</v>
+      </c>
+      <c r="J12" s="68">
+        <v>40</v>
+      </c>
+      <c r="K12" s="69"/>
+    </row>
+    <row r="13" ht="15.65" customHeight="1">
+      <c r="A13" t="s" s="61">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s" s="62">
+        <v>87</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="65"/>
+      <c r="F13" t="s" s="63">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="65">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="K13" t="s" s="69">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" ht="15.65" customHeight="1">
+      <c r="A14" t="s" s="61">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s" s="71">
+        <v>87</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" t="s" s="72">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="74">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s" s="75">
+        <v>85</v>
+      </c>
+      <c r="I14" s="76">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="78"/>
+    </row>
+    <row r="15" ht="15.65" customHeight="1">
+      <c r="A15" t="s" s="61">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s" s="62">
+        <v>92</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="65"/>
+      <c r="F15" t="s" s="63">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s" s="65">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I15" s="67">
+        <v>35</v>
+      </c>
+      <c r="J15" s="68">
+        <v>215</v>
+      </c>
+      <c r="K15" t="s" s="69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" ht="15.65" customHeight="1">
+      <c r="A16" t="s" s="61">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s" s="62">
+        <v>92</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="65"/>
+      <c r="F16" t="s" s="63">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s" s="65">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="I16" s="67">
         <v>10</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="63">
-        <v>2</v>
-      </c>
-      <c r="G12" s="65">
-        <v>305</v>
-      </c>
-      <c r="H12" s="66">
-        <v>25</v>
-      </c>
-      <c r="I12" s="67">
-        <v>40</v>
-      </c>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" ht="15.65" customHeight="1">
-      <c r="A13" t="s" s="60">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s" s="61">
-        <v>70</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="63">
-        <v>3</v>
-      </c>
-      <c r="G13" s="65">
-        <v>105</v>
-      </c>
-      <c r="H13" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0.12</v>
-      </c>
-      <c r="J13" t="s" s="68">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" ht="15.65" customHeight="1">
-      <c r="A14" t="s" s="60">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s" s="70">
-        <v>70</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74">
-        <v>3</v>
-      </c>
-      <c r="G14" s="75">
-        <v>110</v>
-      </c>
-      <c r="H14" s="76">
-        <v>0.65</v>
-      </c>
-      <c r="I14" s="77">
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" ht="15.65" customHeight="1">
-      <c r="A15" t="s" s="60">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s" s="61">
-        <v>74</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63">
-        <v>4</v>
-      </c>
-      <c r="G15" s="65">
-        <v>105</v>
-      </c>
-      <c r="H15" s="66">
-        <v>35</v>
-      </c>
-      <c r="I15" s="67">
-        <v>215</v>
-      </c>
-      <c r="J15" t="s" s="68">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" ht="15.65" customHeight="1">
-      <c r="A16" t="s" s="60">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s" s="61">
-        <v>74</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63">
-        <v>4</v>
-      </c>
-      <c r="G16" s="65">
-        <v>110</v>
-      </c>
-      <c r="H16" s="66">
-        <v>10</v>
-      </c>
-      <c r="I16" s="67"/>
       <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17" ht="15.65" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="66"/>
       <c r="I17" s="67"/>
       <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" ht="15.65" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="66"/>
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
     </row>
     <row r="19" ht="15.65" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="66"/>
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" ht="15.65" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="66"/>
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -4454,504 +4605,549 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" style="81" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="81" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="81" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="81" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="81" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="81" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="81" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="81" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="81" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="45.875" style="81" customWidth="1"/>
-    <col min="13" max="256" width="7.75" style="81" customWidth="1"/>
+    <col min="1" max="1" width="22" style="80" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="80" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="80" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="80" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="80" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="80" customWidth="1"/>
+    <col min="8" max="8" width="20.7422" style="80" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="80" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="80" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="80" customWidth="1"/>
+    <col min="13" max="13" width="45.875" style="80" customWidth="1"/>
+    <col min="14" max="256" width="7.75" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.9" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="35"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="37"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="44"/>
-      <c r="I2" t="s" s="39">
-        <v>44</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="39"/>
+      <c r="B2" t="s" s="40">
+        <v>45</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="46"/>
+      <c r="J2" t="s" s="40">
+        <v>46</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" ht="60.5" customHeight="1">
-      <c r="A3" t="s" s="46">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s" s="47">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s" s="48">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s" s="48">
+      <c r="A3" t="s" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s" s="49">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s" s="50">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s" s="50">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s" s="50">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s" s="50">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s" s="50">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s" s="50">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s" s="48">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s" s="49">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s" s="50">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s" s="48">
+        <v>106</v>
+      </c>
+      <c r="M3" t="s" s="51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="15.65" customHeight="1">
+      <c r="A4" t="s" s="52">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s" s="54">
+        <v>65</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="56"/>
+      <c r="F4" t="s" s="54">
+        <v>65</v>
+      </c>
+      <c r="G4" s="86">
+        <v>36891</v>
+      </c>
+      <c r="H4" t="s" s="56">
+        <v>108</v>
+      </c>
+      <c r="I4" s="87">
+        <v>10</v>
+      </c>
+      <c r="J4" s="58">
+        <v>950</v>
+      </c>
+      <c r="K4" s="88">
+        <v>120</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="60"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" t="s" s="61">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s" s="69">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="65"/>
+      <c r="F5" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G5" s="90">
+        <v>36891</v>
+      </c>
+      <c r="H5" t="s" s="65">
+        <v>108</v>
+      </c>
+      <c r="I5" s="91">
+        <v>30</v>
+      </c>
+      <c r="J5" s="67">
+        <v>275</v>
+      </c>
+      <c r="K5" s="92">
+        <v>50</v>
+      </c>
+      <c r="L5" s="93"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" t="s" s="61">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s" s="69">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="90">
+        <v>36891</v>
+      </c>
+      <c r="H6" t="s" s="65">
+        <v>108</v>
+      </c>
+      <c r="I6" s="91">
+        <v>50</v>
+      </c>
+      <c r="J6" s="67">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="92">
+        <v>120</v>
+      </c>
+      <c r="L6" s="93"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" ht="15.65" customHeight="1">
+      <c r="A7" t="s" s="61">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="90">
+        <v>36891</v>
+      </c>
+      <c r="H7" t="s" s="65">
+        <v>108</v>
+      </c>
+      <c r="I7" s="91">
+        <v>51</v>
+      </c>
+      <c r="J7" s="67">
+        <v>1400</v>
+      </c>
+      <c r="K7" s="92">
+        <v>120</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" ht="15.65" customHeight="1">
+      <c r="A8" t="s" s="61">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>113</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="65"/>
+      <c r="F8" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G8" s="90">
+        <v>36160</v>
+      </c>
+      <c r="H8" t="s" s="65">
+        <v>113</v>
+      </c>
+      <c r="I8" s="91">
+        <v>10</v>
+      </c>
+      <c r="J8" s="67">
+        <v>195</v>
+      </c>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" ht="15.65" customHeight="1">
+      <c r="A9" t="s" s="61">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s" s="69">
+        <v>113</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="65"/>
+      <c r="F9" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G9" s="90">
+        <v>36160</v>
+      </c>
+      <c r="H9" t="s" s="65">
+        <v>113</v>
+      </c>
+      <c r="I9" s="91">
+        <v>30</v>
+      </c>
+      <c r="J9" s="67">
+        <v>250</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" ht="15.65" customHeight="1">
+      <c r="A10" t="s" s="61">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s" s="69">
+        <v>116</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
+      <c r="F10" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G10" s="94">
+        <v>35795</v>
+      </c>
+      <c r="H10" t="s" s="74">
+        <v>117</v>
+      </c>
+      <c r="I10" s="95">
+        <v>10</v>
+      </c>
+      <c r="J10" s="76">
+        <v>59</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" ht="15.65" customHeight="1">
+      <c r="A11" t="s" s="61">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s" s="69">
+        <v>116</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="65"/>
+      <c r="F11" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G11" s="90">
+        <v>35795</v>
+      </c>
+      <c r="H11" t="s" s="65">
+        <v>117</v>
+      </c>
+      <c r="I11" s="91">
+        <v>30</v>
+      </c>
+      <c r="J11" s="67">
+        <v>35</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" ht="15.65" customHeight="1">
+      <c r="A12" t="s" s="61">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s" s="69">
+        <v>120</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s" s="65">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G12" s="90">
+        <v>37256</v>
+      </c>
+      <c r="H12" t="s" s="65">
+        <v>121</v>
+      </c>
+      <c r="I12" s="91">
+        <v>10</v>
+      </c>
+      <c r="J12" s="67">
+        <v>200</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="91">
+        <v>20</v>
+      </c>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" ht="15.65" customHeight="1">
+      <c r="A13" t="s" s="61">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="69">
+        <v>120</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s" s="65">
         <v>80</v>
       </c>
-      <c r="E3" t="s" s="48">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s" s="48">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s" s="48">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s" s="46">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s" s="47">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s" s="48">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s" s="46">
-        <v>85</v>
-      </c>
-      <c r="L3" t="s" s="49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="50">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s" s="59">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="54"/>
-      <c r="F4" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="G4" s="55">
-        <v>1</v>
-      </c>
-      <c r="H4" s="56">
-        <v>105</v>
-      </c>
-      <c r="I4" s="57">
-        <v>950</v>
-      </c>
-      <c r="J4" s="87">
+      <c r="F13" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G13" s="90">
+        <v>37256</v>
+      </c>
+      <c r="H13" t="s" s="65">
+        <v>121</v>
+      </c>
+      <c r="I13" s="91">
+        <v>20</v>
+      </c>
+      <c r="J13" s="67">
+        <v>135</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="91">
+        <v>20</v>
+      </c>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" ht="15.65" customHeight="1">
+      <c r="A14" t="s" s="61">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s" s="69">
         <v>120</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="60">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s" s="68">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="64"/>
-      <c r="F5" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G5" s="63">
-        <v>1</v>
-      </c>
-      <c r="H5" s="65">
-        <v>110</v>
-      </c>
-      <c r="I5" s="66">
-        <v>275</v>
-      </c>
-      <c r="J5" s="89">
-        <v>50</v>
-      </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="60">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="68">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63">
-        <v>1</v>
-      </c>
-      <c r="H6" s="65">
-        <v>120</v>
-      </c>
-      <c r="I6" s="66">
-        <v>1200</v>
-      </c>
-      <c r="J6" s="89">
-        <v>120</v>
-      </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" ht="15.65" customHeight="1">
-      <c r="A7" t="s" s="60">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s" s="68">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63">
-        <v>1</v>
-      </c>
-      <c r="H7" s="65">
-        <v>130</v>
-      </c>
-      <c r="I7" s="66">
-        <v>1400</v>
-      </c>
-      <c r="J7" s="89">
-        <v>120</v>
-      </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="68"/>
-    </row>
-    <row r="8" ht="15.65" customHeight="1">
-      <c r="A8" t="s" s="60">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s" s="68">
-        <v>91</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G8" s="63">
-        <v>1</v>
-      </c>
-      <c r="H8" s="65">
-        <v>205</v>
-      </c>
-      <c r="I8" s="66">
-        <v>195</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" ht="15.65" customHeight="1">
-      <c r="A9" t="s" s="60">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s" s="68">
-        <v>91</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G9" s="63">
-        <v>1</v>
-      </c>
-      <c r="H9" s="65">
-        <v>210</v>
-      </c>
-      <c r="I9" s="66">
-        <v>250</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" ht="15.65" customHeight="1">
-      <c r="A10" t="s" s="60">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s" s="68">
-        <v>94</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
-      <c r="F10" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G10" s="74">
-        <v>1</v>
-      </c>
-      <c r="H10" s="75">
-        <v>305</v>
-      </c>
-      <c r="I10" s="76">
-        <v>59</v>
-      </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="68"/>
-    </row>
-    <row r="11" ht="15.65" customHeight="1">
-      <c r="A11" t="s" s="60">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s" s="68">
-        <v>94</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="64"/>
-      <c r="F11" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G11" s="63">
-        <v>1</v>
-      </c>
-      <c r="H11" s="65">
-        <v>310</v>
-      </c>
-      <c r="I11" s="66">
-        <v>35</v>
-      </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="68"/>
-    </row>
-    <row r="12" ht="15.65" customHeight="1">
-      <c r="A12" t="s" s="60">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s" s="68">
-        <v>97</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s" s="64">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G12" s="63">
-        <v>1</v>
-      </c>
-      <c r="H12" s="65">
-        <v>405</v>
-      </c>
-      <c r="I12" s="66">
-        <v>200</v>
-      </c>
-      <c r="J12" s="89"/>
-      <c r="K12" s="65">
-        <v>20</v>
-      </c>
-      <c r="L12" s="68"/>
-    </row>
-    <row r="13" ht="15.65" customHeight="1">
-      <c r="A13" t="s" s="60">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s" s="68">
-        <v>97</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s" s="64">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G13" s="63">
-        <v>1</v>
-      </c>
-      <c r="H13" s="65">
-        <v>410</v>
-      </c>
-      <c r="I13" s="66">
-        <v>135</v>
-      </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="65">
-        <v>20</v>
-      </c>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" ht="15.65" customHeight="1">
-      <c r="A14" t="s" s="60">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s" s="68">
-        <v>97</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s" s="64">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s" s="62">
-        <v>59</v>
-      </c>
-      <c r="G14" s="63">
-        <v>1</v>
-      </c>
-      <c r="H14" s="65">
-        <v>415</v>
-      </c>
-      <c r="I14" s="66">
+      <c r="C14" s="63"/>
+      <c r="D14" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s" s="65">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s" s="63">
+        <v>65</v>
+      </c>
+      <c r="G14" s="90">
+        <v>37256</v>
+      </c>
+      <c r="H14" t="s" s="65">
+        <v>121</v>
+      </c>
+      <c r="I14" s="91">
+        <v>30</v>
+      </c>
+      <c r="J14" s="67">
         <v>300</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="65">
+      <c r="K14" s="92"/>
+      <c r="L14" s="91">
         <v>10</v>
       </c>
-      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" ht="15.65" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="68"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" ht="15.65" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="68"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" ht="15.65" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="68"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" ht="15.65" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="68"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" ht="15.65" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="68"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" ht="15.65" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="68"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -4969,178 +5165,178 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="92" customWidth="1"/>
-    <col min="2" max="2" width="25" style="92" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="92" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="92" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="92" customWidth="1"/>
-    <col min="6" max="256" width="12.25" style="92" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="99" customWidth="1"/>
+    <col min="2" max="2" width="25" style="99" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="99" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="99" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="93"/>
+        <v>124</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" ht="41.75" customHeight="1">
-      <c r="A2" t="s" s="94">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s" s="94">
+      <c r="A2" t="s" s="101">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s" s="101">
         <v>30</v>
       </c>
-      <c r="C2" t="s" s="94">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s" s="94">
-        <v>103</v>
-      </c>
-      <c r="E2" s="95"/>
+      <c r="C2" t="s" s="101">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s" s="101">
+        <v>127</v>
+      </c>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" ht="15.65" customHeight="1">
-      <c r="A3" t="s" s="96">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s" s="64">
+      <c r="A3" t="s" s="103">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s" s="65">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="97"/>
+      <c r="C3" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="96">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s" s="64">
+      <c r="A4" t="s" s="103">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s" s="65">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="97"/>
+      <c r="C4" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" ht="15.65" customHeight="1">
-      <c r="A5" t="s" s="96">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s" s="64">
+      <c r="A5" t="s" s="103">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s" s="65">
         <v>38</v>
       </c>
-      <c r="C5" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="97"/>
+      <c r="C5" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" ht="15.65" customHeight="1">
-      <c r="A6" t="s" s="96">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s" s="64">
+      <c r="A6" t="s" s="103">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s" s="65">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="97"/>
+      <c r="C6" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" ht="15.65" customHeight="1">
-      <c r="A7" t="s" s="96">
+      <c r="A7" t="s" s="103">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s" s="65">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="104"/>
+    </row>
+    <row r="8" ht="15.65" customHeight="1">
+      <c r="A8" t="s" s="103">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s" s="65">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="63">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s" s="65">
         <v>109</v>
       </c>
-      <c r="B7" t="s" s="64">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="97"/>
-    </row>
-    <row r="8" ht="15.65" customHeight="1">
-      <c r="A8" t="s" s="96">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s" s="64">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s" s="62">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s" s="64">
-        <v>86</v>
-      </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" ht="15.65" customHeight="1">
-      <c r="A9" t="s" s="96">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s" s="64">
+      <c r="A9" t="s" s="103">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s" s="65">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="62">
-        <v>113</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="97"/>
+      <c r="C9" t="s" s="63">
+        <v>137</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" ht="15.65" customHeight="1">
-      <c r="A10" t="s" s="96">
-        <v>114</v>
-      </c>
-      <c r="B10" t="s" s="64">
+      <c r="A10" t="s" s="103">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="65">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="62">
-        <v>105</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="97"/>
+      <c r="C10" t="s" s="63">
+        <v>129</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" ht="15.65" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" ht="15.65" customHeight="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="97"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" ht="15.65" customHeight="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="97"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" ht="15.65" customHeight="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="97"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" ht="15.65" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5162,736 +5358,734 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="99" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="99" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="99" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="99" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="99" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="99" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="99" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="99" customWidth="1"/>
-    <col min="11" max="11" width="8" style="99" customWidth="1"/>
-    <col min="12" max="12" width="11" style="99" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="99" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="99" customWidth="1"/>
-    <col min="15" max="15" width="8.25" style="99" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="99" customWidth="1"/>
-    <col min="17" max="17" width="14" style="99" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="99" customWidth="1"/>
-    <col min="19" max="19" width="20" style="99" customWidth="1"/>
-    <col min="20" max="20" width="5.25" style="99" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="99" customWidth="1"/>
-    <col min="22" max="22" width="8.375" style="99" customWidth="1"/>
-    <col min="23" max="23" width="14.375" style="99" customWidth="1"/>
-    <col min="24" max="24" width="10.875" style="99" customWidth="1"/>
-    <col min="25" max="256" width="8.25" style="99" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="106" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="106" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="106" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="106" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="106" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="106" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="106" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="106" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="106" customWidth="1"/>
+    <col min="11" max="11" width="8" style="106" customWidth="1"/>
+    <col min="12" max="12" width="11" style="106" customWidth="1"/>
+    <col min="13" max="15" width="8.25" style="106" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="106" customWidth="1"/>
+    <col min="17" max="17" width="14" style="106" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="106" customWidth="1"/>
+    <col min="19" max="19" width="20" style="106" customWidth="1"/>
+    <col min="20" max="20" width="5.25" style="106" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="106" customWidth="1"/>
+    <col min="22" max="22" width="8.375" style="106" customWidth="1"/>
+    <col min="23" max="23" width="14.375" style="106" customWidth="1"/>
+    <col min="24" max="24" width="10.875" style="106" customWidth="1"/>
+    <col min="25" max="256" width="8.25" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.7" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="82"/>
+        <v>139</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="81"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="37"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="38"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" ht="15.65" customHeight="1">
-      <c r="A2" t="s" s="100">
-        <v>116</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" t="s" s="39">
-        <v>117</v>
-      </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" t="s" s="100">
-        <v>118</v>
-      </c>
-      <c r="M2" t="s" s="100">
-        <v>119</v>
-      </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" t="s" s="39">
-        <v>120</v>
-      </c>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="105"/>
+      <c r="A2" t="s" s="107">
+        <v>140</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" t="s" s="40">
+        <v>141</v>
+      </c>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" t="s" s="107">
+        <v>142</v>
+      </c>
+      <c r="M2" t="s" s="107">
+        <v>143</v>
+      </c>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" t="s" s="40">
+        <v>144</v>
+      </c>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="112"/>
     </row>
     <row r="3" ht="43.75" customHeight="1">
-      <c r="A3" t="s" s="106">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s" s="106">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s" s="106">
+      <c r="A3" t="s" s="113">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s" s="113">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s" s="113">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s" s="113">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s" s="113">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s" s="114">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s" s="115">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s" s="113">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s" s="113">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s" s="113">
+        <v>154</v>
+      </c>
+      <c r="K3" t="s" s="114">
+        <v>155</v>
+      </c>
+      <c r="L3" t="s" s="116">
+        <v>156</v>
+      </c>
+      <c r="M3" t="s" s="115">
+        <v>157</v>
+      </c>
+      <c r="N3" t="s" s="113">
+        <v>158</v>
+      </c>
+      <c r="O3" t="s" s="113">
+        <v>159</v>
+      </c>
+      <c r="P3" t="s" s="113">
+        <v>160</v>
+      </c>
+      <c r="Q3" t="s" s="113">
+        <v>161</v>
+      </c>
+      <c r="R3" t="s" s="114">
+        <v>162</v>
+      </c>
+      <c r="S3" t="s" s="115">
+        <v>163</v>
+      </c>
+      <c r="T3" t="s" s="113">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s" s="113">
+        <v>165</v>
+      </c>
+      <c r="V3" t="s" s="113">
+        <v>166</v>
+      </c>
+      <c r="W3" t="s" s="113">
+        <v>167</v>
+      </c>
+      <c r="X3" t="s" s="113">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" ht="15.65" customHeight="1">
+      <c r="A4" t="s" s="117">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s" s="117">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s" s="118">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s" s="78">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>176</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>177</v>
+      </c>
+      <c r="J4" t="s" s="74">
+        <v>178</v>
+      </c>
+      <c r="K4" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s" s="119">
+        <v>180</v>
+      </c>
+      <c r="M4" t="s" s="78">
+        <v>181</v>
+      </c>
+      <c r="N4" t="s" s="74">
+        <v>182</v>
+      </c>
+      <c r="O4" t="s" s="74">
+        <v>182</v>
+      </c>
+      <c r="P4" t="s" s="74">
+        <v>183</v>
+      </c>
+      <c r="Q4" t="s" s="74">
+        <v>184</v>
+      </c>
+      <c r="R4" t="s" s="75">
+        <v>185</v>
+      </c>
+      <c r="S4" t="s" s="120">
+        <v>109</v>
+      </c>
+      <c r="T4" s="121">
+        <v>1</v>
+      </c>
+      <c r="U4" s="96">
+        <v>10</v>
+      </c>
+      <c r="V4" s="121">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s" s="74">
+        <v>134</v>
+      </c>
+      <c r="X4" s="122">
+        <v>41201</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" customHeight="1">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="75"/>
+      <c r="S5" t="s" s="120">
         <v>123</v>
       </c>
-      <c r="D3" t="s" s="106">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s" s="106">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s" s="107">
-        <v>126</v>
-      </c>
-      <c r="G3" t="s" s="108">
-        <v>127</v>
-      </c>
-      <c r="H3" t="s" s="106">
-        <v>128</v>
-      </c>
-      <c r="I3" t="s" s="106">
-        <v>129</v>
-      </c>
-      <c r="J3" t="s" s="106">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s" s="107">
-        <v>131</v>
-      </c>
-      <c r="L3" t="s" s="109">
-        <v>132</v>
-      </c>
-      <c r="M3" t="s" s="108">
-        <v>133</v>
-      </c>
-      <c r="N3" t="s" s="106">
-        <v>134</v>
-      </c>
-      <c r="O3" t="s" s="106">
-        <v>135</v>
-      </c>
-      <c r="P3" t="s" s="106">
-        <v>136</v>
-      </c>
-      <c r="Q3" t="s" s="106">
-        <v>137</v>
-      </c>
-      <c r="R3" t="s" s="107">
-        <v>138</v>
-      </c>
-      <c r="S3" t="s" s="108">
-        <v>139</v>
-      </c>
-      <c r="T3" t="s" s="106">
-        <v>140</v>
-      </c>
-      <c r="U3" t="s" s="106">
-        <v>141</v>
-      </c>
-      <c r="V3" t="s" s="106">
-        <v>142</v>
-      </c>
-      <c r="W3" t="s" s="106">
-        <v>143</v>
-      </c>
-      <c r="X3" t="s" s="106">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="110">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s" s="110">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s" s="73">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s" s="73">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s" s="73">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s" s="111">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s" s="78">
-        <v>151</v>
-      </c>
-      <c r="H4" t="s" s="73">
-        <v>152</v>
-      </c>
-      <c r="I4" t="s" s="73">
-        <v>153</v>
-      </c>
-      <c r="J4" t="s" s="73">
-        <v>154</v>
-      </c>
-      <c r="K4" t="s" s="111">
-        <v>155</v>
-      </c>
-      <c r="L4" t="s" s="112">
-        <v>156</v>
-      </c>
-      <c r="M4" t="s" s="78">
-        <v>157</v>
-      </c>
-      <c r="N4" t="s" s="73">
-        <v>158</v>
-      </c>
-      <c r="O4" t="s" s="73">
-        <v>158</v>
-      </c>
-      <c r="P4" t="s" s="73">
-        <v>159</v>
-      </c>
-      <c r="Q4" t="s" s="73">
-        <v>160</v>
-      </c>
-      <c r="R4" t="s" s="113">
-        <v>161</v>
-      </c>
-      <c r="S4" t="s" s="114">
-        <v>86</v>
-      </c>
-      <c r="T4" s="74">
+      <c r="T5" s="73">
+        <v>2</v>
+      </c>
+      <c r="U5" s="123">
+        <v>20</v>
+      </c>
+      <c r="V5" s="73">
         <v>1</v>
       </c>
-      <c r="U4" s="90">
-        <v>10</v>
-      </c>
-      <c r="V4" s="74">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s" s="73">
-        <v>110</v>
-      </c>
-      <c r="X4" s="115">
-        <v>41201</v>
-      </c>
-    </row>
-    <row r="5" ht="15.65" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="113"/>
-      <c r="S5" t="s" s="114">
-        <v>99</v>
-      </c>
-      <c r="T5" s="72">
-        <v>2</v>
-      </c>
-      <c r="U5" s="116">
-        <v>20</v>
-      </c>
-      <c r="V5" s="72">
+      <c r="W5" s="74"/>
+      <c r="X5" s="122">
+        <v>41226</v>
+      </c>
+    </row>
+    <row r="6" ht="15.65" customHeight="1">
+      <c r="A6" t="s" s="117">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s" s="117">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s" s="74">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s" s="74">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s" s="74">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s" s="118">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s" s="78">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s" s="74">
+        <v>176</v>
+      </c>
+      <c r="I6" t="s" s="74">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s" s="74">
+        <v>178</v>
+      </c>
+      <c r="K6" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="L6" t="s" s="119">
+        <v>180</v>
+      </c>
+      <c r="M6" s="78"/>
+      <c r="N6" s="74"/>
+      <c r="O6" t="s" s="74">
+        <v>191</v>
+      </c>
+      <c r="P6" t="s" s="74">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="74"/>
+      <c r="R6" t="s" s="75">
+        <v>185</v>
+      </c>
+      <c r="S6" t="s" s="120">
+        <v>114</v>
+      </c>
+      <c r="T6" s="73">
         <v>1</v>
       </c>
-      <c r="W5" s="73"/>
-      <c r="X5" s="115">
-        <v>41226</v>
-      </c>
-    </row>
-    <row r="6" ht="15.65" customHeight="1">
-      <c r="A6" t="s" s="110">
-        <v>162</v>
-      </c>
-      <c r="B6" t="s" s="110">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s" s="73">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s" s="73">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s" s="73">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s" s="111">
-        <v>165</v>
-      </c>
-      <c r="G6" t="s" s="78">
-        <v>151</v>
-      </c>
-      <c r="H6" t="s" s="73">
-        <v>152</v>
-      </c>
-      <c r="I6" t="s" s="73">
-        <v>166</v>
-      </c>
-      <c r="J6" t="s" s="73">
-        <v>154</v>
-      </c>
-      <c r="K6" t="s" s="111">
-        <v>155</v>
-      </c>
-      <c r="L6" t="s" s="112">
-        <v>156</v>
-      </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="73"/>
-      <c r="O6" t="s" s="73">
-        <v>167</v>
-      </c>
-      <c r="P6" t="s" s="73">
-        <v>159</v>
-      </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" t="s" s="113">
-        <v>161</v>
-      </c>
-      <c r="S6" t="s" s="114">
-        <v>92</v>
-      </c>
-      <c r="T6" s="72">
-        <v>1</v>
-      </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="115">
+      <c r="U6" s="96"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="122">
         <v>41203</v>
       </c>
     </row>
     <row r="7" ht="15.65" customHeight="1">
-      <c r="A7" t="s" s="110">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s" s="110">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s" s="73">
-        <v>169</v>
-      </c>
-      <c r="D7" t="s" s="73">
-        <v>148</v>
-      </c>
-      <c r="E7" t="s" s="73">
+      <c r="A7" t="s" s="117">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s" s="117">
         <v>170</v>
       </c>
-      <c r="F7" t="s" s="111">
-        <v>171</v>
+      <c r="C7" t="s" s="74">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s" s="74">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s" s="74">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s" s="118">
+        <v>195</v>
       </c>
       <c r="G7" t="s" s="78">
-        <v>151</v>
-      </c>
-      <c r="H7" t="s" s="73">
-        <v>152</v>
-      </c>
-      <c r="I7" t="s" s="73">
-        <v>153</v>
-      </c>
-      <c r="J7" t="s" s="73">
-        <v>154</v>
-      </c>
-      <c r="K7" t="s" s="111">
-        <v>155</v>
-      </c>
-      <c r="L7" t="s" s="112">
-        <v>156</v>
+        <v>175</v>
+      </c>
+      <c r="H7" t="s" s="74">
+        <v>176</v>
+      </c>
+      <c r="I7" t="s" s="74">
+        <v>177</v>
+      </c>
+      <c r="J7" t="s" s="74">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s" s="118">
+        <v>179</v>
+      </c>
+      <c r="L7" t="s" s="119">
+        <v>180</v>
       </c>
       <c r="M7" s="78"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" t="s" s="73">
-        <v>159</v>
-      </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" t="s" s="113">
-        <v>172</v>
-      </c>
-      <c r="S7" s="114"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="115">
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" t="s" s="74">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="74"/>
+      <c r="R7" t="s" s="75">
+        <v>196</v>
+      </c>
+      <c r="S7" s="120"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="122">
         <v>41228</v>
       </c>
     </row>
     <row r="8" ht="15.65" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="111"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="78"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="78"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="115"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="122"/>
     </row>
     <row r="9" ht="15.65" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="111"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="118"/>
       <c r="G9" s="78"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="78"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="115"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="122"/>
     </row>
     <row r="10" ht="15.65" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="111"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="78"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="78"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="115"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="122"/>
     </row>
     <row r="11" ht="15.65" customHeight="1">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="111"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="78"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="78"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="115"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="122"/>
     </row>
     <row r="12" ht="15.65" customHeight="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="111"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="78"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="78"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="115"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="122"/>
     </row>
     <row r="13" ht="15.65" customHeight="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="111"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="78"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="115"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="122"/>
     </row>
     <row r="14" ht="15.65" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="111"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="78"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="78"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="115"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="122"/>
     </row>
     <row r="15" ht="15.65" customHeight="1">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="111"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="78"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="78"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="115"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="122"/>
     </row>
     <row r="16" ht="15.65" customHeight="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="111"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="78"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="78"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="115"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="122"/>
     </row>
     <row r="17" ht="15.65" customHeight="1">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="111"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="78"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="78"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="115"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="122"/>
     </row>
     <row r="18" ht="15.65" customHeight="1">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="111"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="78"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="115"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="122"/>
     </row>
     <row r="19" ht="15.65" customHeight="1">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="111"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="78"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="112"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
       <c r="M19" s="78"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="115"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="122"/>
     </row>
     <row r="20" ht="15.65" customHeight="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="111"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="78"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="112"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
       <c r="M20" s="78"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="115"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="5">
